--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorvergara/Documents/GWDA Local/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damita\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F3FFB7-13BF-8440-8659-CD269516613B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD320F00-19F3-4FB9-A617-F763EA817249}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" xr2:uid="{ADC29F72-AE86-5742-97CE-045CD8C91469}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{ADC29F72-AE86-5742-97CE-045CD8C91469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
   <si>
     <t>Team</t>
   </si>
@@ -346,13 +346,31 @@
   </si>
   <si>
     <t>Seattle, Washington</t>
+  </si>
+  <si>
+    <t># of Championships</t>
+  </si>
+  <si>
+    <t>Age of Team</t>
+  </si>
+  <si>
+    <t># of Suspensions</t>
+  </si>
+  <si>
+    <t>Wealth of Team</t>
+  </si>
+  <si>
+    <t>Stadium Population</t>
+  </si>
+  <si>
+    <t>City Population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -405,7 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,19 +738,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F35BAF-CE93-064F-A920-A73D8B98BFE3}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="50.8125" customWidth="1"/>
+    <col min="3" max="3" width="36.6875" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="29.1875" customWidth="1"/>
+    <col min="6" max="6" width="19.9375" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -743,24 +769,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="4">
+        <v>1626078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -770,11 +818,14 @@
       <c r="C3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <v>486290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -784,11 +835,14 @@
       <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>611648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -798,11 +852,14 @@
       <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="4">
+        <v>16201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -812,11 +869,14 @@
       <c r="C6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <v>859035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -826,11 +886,14 @@
       <c r="C7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <v>29901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -840,11 +903,14 @@
       <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <v>301301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -854,11 +920,14 @@
       <c r="C9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <v>385525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -868,11 +937,14 @@
       <c r="C10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <v>13237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -882,11 +954,14 @@
       <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <v>704621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -896,11 +971,14 @@
       <c r="C12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12">
+        <v>673104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -910,11 +988,14 @@
       <c r="C13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13">
+        <v>105116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -924,11 +1005,14 @@
       <c r="C14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14">
+        <v>2312717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -938,11 +1022,14 @@
       <c r="C15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15">
+        <v>863002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -952,11 +1039,14 @@
       <c r="C16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>892062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -966,11 +1056,14 @@
       <c r="C17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17">
+        <v>488943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -980,11 +1073,14 @@
       <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <v>2312717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -994,11 +1090,14 @@
       <c r="C19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <v>422331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1008,11 +1107,14 @@
       <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <v>685094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1022,11 +1124,14 @@
       <c r="C21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21">
+        <v>8622698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1036,11 +1141,14 @@
       <c r="C22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <v>8622698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1050,11 +1158,14 @@
       <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23">
+        <v>8622698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1064,11 +1175,14 @@
       <c r="C24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <v>425195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1078,11 +1192,14 @@
       <c r="C25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <v>1580863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1092,11 +1209,14 @@
       <c r="C26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26">
+        <v>302407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -1106,11 +1226,14 @@
       <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27" s="4">
+        <v>3999759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -1120,11 +1243,14 @@
       <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28">
+        <v>3999759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1134,11 +1260,14 @@
       <c r="C29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29">
+        <v>884363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1148,11 +1277,14 @@
       <c r="C30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <v>724745</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1162,11 +1294,14 @@
       <c r="C31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <v>385430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1176,11 +1311,14 @@
       <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <v>667560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1190,11 +1328,15 @@
       <c r="C33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="F33">
+        <v>693972</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damita\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD320F00-19F3-4FB9-A617-F763EA817249}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E113B-C708-44B6-9E93-42226F7F91E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{ADC29F72-AE86-5742-97CE-045CD8C91469}"/>
+    <workbookView xWindow="61812" yWindow="7524" windowWidth="23256" windowHeight="12576" xr2:uid="{ADC29F72-AE86-5742-97CE-045CD8C91469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F35BAF-CE93-064F-A920-A73D8B98BFE3}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -800,7 +800,9 @@
       <c r="C2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>246709</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>101</v>
       </c>
@@ -818,6 +820,9 @@
       <c r="C3" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="D3">
+        <v>486290</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>102</v>
       </c>
@@ -835,6 +840,9 @@
       <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="D4">
+        <v>611648</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>76</v>
       </c>
@@ -852,6 +860,9 @@
       <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="D5" s="4">
+        <v>29672</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
@@ -869,6 +880,9 @@
       <c r="C6" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="D6">
+        <v>859035</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>103</v>
       </c>
@@ -886,6 +900,9 @@
       <c r="C7" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="D7">
+        <v>29901</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>94</v>
       </c>
@@ -903,6 +920,9 @@
       <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D8">
+        <v>301301</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>77</v>
       </c>
@@ -920,6 +940,9 @@
       <c r="C9" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="D9">
+        <v>385525</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>78</v>
       </c>
@@ -937,6 +960,9 @@
       <c r="C10" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="D10" s="4">
+        <v>396394</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>90</v>
       </c>
@@ -954,6 +980,9 @@
       <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D11">
+        <v>704621</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>84</v>
       </c>
@@ -971,6 +1000,9 @@
       <c r="C12" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="D12">
+        <v>673104</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>95</v>
       </c>
@@ -988,6 +1020,9 @@
       <c r="C13" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="D13">
+        <v>105116</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>96</v>
       </c>
@@ -1005,6 +1040,9 @@
       <c r="C14" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="D14">
+        <v>2312717</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>80</v>
       </c>
@@ -1022,6 +1060,9 @@
       <c r="C15" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="D15">
+        <v>863002</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>81</v>
       </c>
@@ -1039,6 +1080,9 @@
       <c r="C16" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="D16">
+        <v>892062</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>82</v>
       </c>
@@ -1056,6 +1100,9 @@
       <c r="C17" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="D17">
+        <v>488943</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>85</v>
       </c>
@@ -1073,6 +1120,9 @@
       <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="D18" s="4">
+        <v>113750</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1090,6 +1140,9 @@
       <c r="C19" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="D19">
+        <v>422331</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
@@ -1107,6 +1160,9 @@
       <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="D20" s="4">
+        <v>17574</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
@@ -1124,6 +1180,9 @@
       <c r="C21" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="D21">
+        <v>8622698</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>98</v>
       </c>
@@ -1141,6 +1200,9 @@
       <c r="C22" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="D22" s="4">
+        <v>9928</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>75</v>
       </c>
@@ -1158,6 +1220,9 @@
       <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="D23">
+        <v>9928</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>75</v>
       </c>
@@ -1175,11 +1240,14 @@
       <c r="C24" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="D24">
+        <v>8622698</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F24">
-        <v>425195</v>
+        <v>8622698</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
@@ -1192,6 +1260,9 @@
       <c r="C25" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="D25">
+        <v>1580863</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>91</v>
       </c>
@@ -1209,6 +1280,9 @@
       <c r="C26" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="D26">
+        <v>302407</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1226,6 +1300,9 @@
       <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="D27" s="4">
+        <v>3999759</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>87</v>
       </c>
@@ -1243,6 +1320,9 @@
       <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="D28">
+        <v>92735</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>87</v>
       </c>
@@ -1260,6 +1340,9 @@
       <c r="C29" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="D29">
+        <v>127134</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>105</v>
       </c>
@@ -1277,6 +1360,9 @@
       <c r="C30" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="D30">
+        <v>724745</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>106</v>
       </c>
@@ -1294,6 +1380,9 @@
       <c r="C31" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="D31">
+        <v>385430</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>99</v>
       </c>
@@ -1311,6 +1400,9 @@
       <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D32">
+        <v>667560</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>83</v>
       </c>
@@ -1327,6 +1419,9 @@
       </c>
       <c r="C33" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="D33">
+        <v>23078</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>93</v>
